--- a/Reportes/tareas.xlsx
+++ b/Reportes/tareas.xlsx
@@ -28,8 +28,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Times"/>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
   </fonts>
@@ -41,10 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-        <bgColor rgb="00ADD8E6"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="2">
